--- a/data/processed/final_df.xlsx
+++ b/data/processed/final_df.xlsx
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6952460314922838</v>
+        <v>0.315703863320737</v>
       </c>
       <c r="C3" t="n">
         <v>0.0029020482331933</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.855591719060602</v>
+        <v>0.8408309599413208</v>
       </c>
       <c r="C4" t="n">
         <v>0.0582889032453821</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03924578564384902</v>
+        <v>0.01780712225416288</v>
       </c>
       <c r="C6" t="n">
         <v>0.0013901095367767</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.966985492827583</v>
+        <v>2.213422368145572</v>
       </c>
       <c r="C8" t="n">
         <v>0.0001197394905758</v>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.209859850441024</v>
+        <v>1.004789918183667</v>
       </c>
       <c r="C9" t="n">
         <v>0.0414111205140772</v>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03742820540657039</v>
+        <v>-0.01729916459285435</v>
       </c>
       <c r="C10" t="n">
         <v>6.44222479081394e-05</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.148994689819275</v>
+        <v>0.9772208395473495</v>
       </c>
       <c r="C12" t="n">
         <v>0.0927459853654094</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.5388596653727995</v>
+        <v>-0.2478137813650726</v>
       </c>
       <c r="C13" t="n">
         <v>0.0024527542674774</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.09056952651122119</v>
+        <v>0.04105821499710726</v>
       </c>
       <c r="C14" t="n">
         <v>0.0005733605753451</v>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4126615008607518</v>
+        <v>0.1883844708318053</v>
       </c>
       <c r="C15" t="n">
         <v>0.0007543214288979</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2348940489403141</v>
+        <v>-0.1082697748595172</v>
       </c>
       <c r="C16" t="n">
         <v>0.0001649271037374</v>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8094262919222901</v>
+        <v>0.3674857630468443</v>
       </c>
       <c r="C17" t="n">
         <v>0.001489577448378</v>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.6511765322954</v>
+        <v>1.190139038687764</v>
       </c>
       <c r="C19" t="n">
         <v>0.0039251157065775</v>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.156867913390585</v>
+        <v>2.806782085350569</v>
       </c>
       <c r="C20" t="n">
         <v>0.008118862170631</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.07277541089883824</v>
+        <v>-0.03367756360526309</v>
       </c>
       <c r="C21" t="n">
         <v>0.0028230377108678</v>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04926750925936715</v>
+        <v>0.02216006007024079</v>
       </c>
       <c r="C23" t="n">
         <v>0.0052004625967992</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.04025363931667066</v>
+        <v>-0.01853088138594419</v>
       </c>
       <c r="C24" t="n">
         <v>0.0014959374956087</v>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.4600062224518955</v>
+        <v>-0.2122450152708984</v>
       </c>
       <c r="C25" t="n">
         <v>0.0053696977654883</v>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0286950834371292</v>
+        <v>0.01295399164792485</v>
       </c>
       <c r="C26" t="n">
         <v>0.0042194390905525</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.7705386974186208</v>
+        <v>0.3506307477461354</v>
       </c>
       <c r="C28" t="n">
         <v>0.0228260416174028</v>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.27394196009695</v>
+        <v>6.434734238168285</v>
       </c>
       <c r="C29" t="n">
         <v>0.2798757621949702</v>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1503585184230905</v>
+        <v>0.06760722291782455</v>
       </c>
       <c r="C31" t="n">
         <v>0.0017987590540859</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.08468384957586</v>
+        <v>0.03865464736951324</v>
       </c>
       <c r="C32" t="n">
         <v>0.0020577994915981</v>
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3057870099839173</v>
+        <v>0.1374209071780511</v>
       </c>
       <c r="C33" t="n">
         <v>0.0055981434273776</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2265027922804672</v>
+        <v>0.102586422263142</v>
       </c>
       <c r="C34" t="n">
         <v>0.0298360328199072</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-4.842834855775723</v>
+        <v>-2.245762061757237</v>
       </c>
       <c r="C35" t="n">
         <v>0.2060652808912956</v>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.654836767493489</v>
+        <v>-0.302162964729608</v>
       </c>
       <c r="C36" t="n">
         <v>0.0010882759043315</v>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.3224093563682996</v>
+        <v>-0.1485437656878676</v>
       </c>
       <c r="C37" t="n">
         <v>0.0152966477911877</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37.10067440728713</v>
+        <v>16.7896123795119</v>
       </c>
       <c r="C38" t="n">
         <v>0.2679324047439498</v>
@@ -2109,9 +2109,7 @@
           <t>CIV</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>2.528629962801873</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
         <v>0.0135327887691986</v>
       </c>
@@ -2156,7 +2154,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.751692589811452</v>
+        <v>0.7941577712163406</v>
       </c>
       <c r="C40" t="n">
         <v>0.0272446576684589</v>
@@ -2202,7 +2200,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.075659257562266</v>
+        <v>2.307306427726043</v>
       </c>
       <c r="C41" t="n">
         <v>0.1913967073035369</v>
@@ -2248,7 +2246,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.6521728105629987</v>
+        <v>0.2950606030660627</v>
       </c>
       <c r="C42" t="n">
         <v>0.0273904459512211</v>
@@ -2338,7 +2336,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.824410937361629</v>
+        <v>1.734384289117584</v>
       </c>
       <c r="C44" t="n">
         <v>0.07422022871353071</v>
@@ -2384,7 +2382,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.03633807736651352</v>
+        <v>0.01656188844832533</v>
       </c>
       <c r="C45" t="n">
         <v>0.0003439872338242</v>
@@ -2430,7 +2428,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01607126680580427</v>
+        <v>0.00730578206011856</v>
       </c>
       <c r="C46" t="n">
         <v>0.0001062191037497</v>
@@ -2476,7 +2474,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.4345812969988633</v>
+        <v>0.1968425356236457</v>
       </c>
       <c r="C47" t="n">
         <v>0.012944070569465</v>
@@ -2522,7 +2520,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3890535495673994</v>
+        <v>0.174942865082052</v>
       </c>
       <c r="C48" t="n">
         <v>0.0068531897760205</v>
@@ -2590,7 +2588,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07484894054561608</v>
+        <v>0.03386808588978016</v>
       </c>
       <c r="C50" t="n">
         <v>0.0010286994869248</v>
@@ -2636,7 +2634,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.703433453174712</v>
+        <v>-0.325573547517119</v>
       </c>
       <c r="C51" t="n">
         <v>0.0007201280722213</v>
@@ -2682,7 +2680,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-2.856928118162024</v>
+        <v>-1.308081701672813</v>
       </c>
       <c r="C52" t="n">
         <v>0.0023299505844652</v>
@@ -2754,7 +2752,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.09890072479181314</v>
+        <v>0.04451590408861341</v>
       </c>
       <c r="C54" t="n">
         <v>-5.822538179239378e-06</v>
@@ -2844,7 +2842,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.3399214235852552</v>
+        <v>-0.156819538207579</v>
       </c>
       <c r="C56" t="n">
         <v>0.0021606210422903</v>
@@ -2890,7 +2888,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8838699352108453</v>
+        <v>0.3988978047267511</v>
       </c>
       <c r="C57" t="n">
         <v>0.0054821511313886</v>
@@ -2936,7 +2934,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.727670222565935</v>
+        <v>0.7840134206067394</v>
       </c>
       <c r="C58" t="n">
         <v>-0.0058932174459133</v>
@@ -2982,7 +2980,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9096705069564343</v>
+        <v>0.4139948702968894</v>
       </c>
       <c r="C59" t="n">
         <v>0.017896095352868</v>
@@ -3028,7 +3026,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9.231670409752006</v>
+        <v>4.182278777158604</v>
       </c>
       <c r="C60" t="n">
         <v>0.0008905045628787</v>
@@ -3074,7 +3072,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1604632079618113</v>
+        <v>0.0728655333219429</v>
       </c>
       <c r="C61" t="n">
         <v>0.0019471561275668</v>
@@ -3120,7 +3118,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.873452297609933</v>
+        <v>0.8490039650636145</v>
       </c>
       <c r="C62" t="n">
         <v>0.0015756189545835</v>
@@ -3166,7 +3164,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.1252269430350959</v>
+        <v>-0.05818816150016095</v>
       </c>
       <c r="C63" t="n">
         <v>0.0016844822326333</v>
@@ -3212,7 +3210,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.742725295105133</v>
+        <v>2.165771046793598</v>
       </c>
       <c r="C64" t="n">
         <v>0.0474121291160956</v>
@@ -3258,7 +3256,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1.05149692787528</v>
+        <v>-0.4896967220176324</v>
       </c>
       <c r="C65" t="n">
         <v>0.0106177369718507</v>
@@ -3304,7 +3302,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.03172570211583591</v>
+        <v>0.01443771336751657</v>
       </c>
       <c r="C66" t="n">
         <v>0.0059851165628579</v>
@@ -3350,7 +3348,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.2357533887698305</v>
+        <v>-0.1116706412641594</v>
       </c>
       <c r="C67" t="n">
         <v>0.0109828702777662</v>
@@ -3462,7 +3460,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2432343898579718</v>
+        <v>0.1097669284146177</v>
       </c>
       <c r="C70" t="n">
         <v>0.0266252209215513</v>
@@ -3508,7 +3506,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-2.01284270090359</v>
+        <v>-0.9256418868745987</v>
       </c>
       <c r="C71" t="n">
         <v>0.0070811723417455</v>
@@ -3554,7 +3552,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0004314064578780832</v>
+        <v>5.461328019132075e-05</v>
       </c>
       <c r="C72" t="n">
         <v>0.0019267411141503</v>
@@ -3600,7 +3598,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2.692323565468219</v>
+        <v>1.218725361269418</v>
       </c>
       <c r="C73" t="n">
         <v>0.0074817151909634</v>
@@ -3646,7 +3644,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.295111037454349</v>
+        <v>0.5864776232289189</v>
       </c>
       <c r="C74" t="n">
         <v>0.008610299842740299</v>
@@ -3692,7 +3690,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1561880864963264</v>
+        <v>0.07078519165102456</v>
       </c>
       <c r="C75" t="n">
         <v>0.0001289817665627</v>
@@ -3738,7 +3736,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1307612840816056</v>
+        <v>0.05911216451769491</v>
       </c>
       <c r="C76" t="n">
         <v>0.0017099868211802</v>
@@ -3784,7 +3782,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2103883514910265</v>
+        <v>0.09498102911665443</v>
       </c>
       <c r="C77" t="n">
         <v>0.0038392151113423</v>
@@ -3830,7 +3828,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5191678065871357</v>
+        <v>0.2353964374721572</v>
       </c>
       <c r="C78" t="n">
         <v>0.0069911485577101</v>
@@ -3942,7 +3940,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.368778278122949</v>
+        <v>0.622256617181786</v>
       </c>
       <c r="C81" t="n">
         <v>0.009064411575761299</v>
@@ -3988,7 +3986,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.03752561339086382</v>
+        <v>0.01687886858759148</v>
       </c>
       <c r="C82" t="n">
         <v>0.0173962643801109</v>
@@ -4056,7 +4054,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.6697692914935971</v>
+        <v>0.3035959722270954</v>
       </c>
       <c r="C84" t="n">
         <v>0.0114475855611469</v>
@@ -4102,7 +4100,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01177740347806737</v>
+        <v>0.005278783549737248</v>
       </c>
       <c r="C85" t="n">
         <v>0.0022682304900321</v>
@@ -4148,7 +4146,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4339454241019138</v>
+        <v>0.1973412294724017</v>
       </c>
       <c r="C86" t="n">
         <v>0.0022879992489724</v>
@@ -4194,7 +4192,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.07406702380364019</v>
+        <v>-0.03439864623789232</v>
       </c>
       <c r="C87" t="n">
         <v>0.0012933315549431</v>
@@ -4240,7 +4238,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>18.66617134474236</v>
+        <v>8.449943749463658</v>
       </c>
       <c r="C88" t="n">
         <v>0.384088590210787</v>
@@ -4286,7 +4284,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>122.1615932936156</v>
+        <v>55.06250119425792</v>
       </c>
       <c r="C89" t="n">
         <v>0.1551465609418146</v>
@@ -4332,7 +4330,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.2466555164766565</v>
+        <v>-0.1133745449584948</v>
       </c>
       <c r="C90" t="n">
         <v>0.0035675530316513</v>
@@ -4378,7 +4376,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3.317547669420723</v>
+        <v>1.504230212958089</v>
       </c>
       <c r="C91" t="n">
         <v>0.0036998155098608</v>
@@ -4424,7 +4422,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3.685613560634339</v>
+        <v>1.658366926432009</v>
       </c>
       <c r="C92" t="n">
         <v>0.0012733690826122</v>
@@ -4470,7 +4468,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.09822194854986084</v>
+        <v>-0.04602804249228346</v>
       </c>
       <c r="C93" t="n">
         <v>0.0041291929867582</v>
@@ -4516,7 +4514,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2.025619215472538</v>
+        <v>0.9187114928168142</v>
       </c>
       <c r="C94" t="n">
         <v>0.0003882428819826</v>
@@ -4562,7 +4560,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.259954878629379</v>
+        <v>0.571189236746637</v>
       </c>
       <c r="C95" t="n">
         <v>0.0021626999604626</v>
@@ -4608,7 +4606,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.083813405467223</v>
+        <v>0.03804016996145163</v>
       </c>
       <c r="C96" t="n">
         <v>0.0014019398105884</v>
@@ -4654,7 +4652,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.6935727801134711</v>
+        <v>0.3163520907983159</v>
       </c>
       <c r="C97" t="n">
         <v>0.0002967504259973</v>
@@ -4700,7 +4698,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3.201218354521912</v>
+        <v>1.445035130819122</v>
       </c>
       <c r="C98" t="n">
         <v>0.058077348382856</v>
@@ -4746,7 +4744,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1.12563053002461</v>
+        <v>-0.5203403433699363</v>
       </c>
       <c r="C99" t="n">
         <v>0.0116499320670156</v>
@@ -4792,7 +4790,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.237881066023232</v>
+        <v>1.022122855139452</v>
       </c>
       <c r="C100" t="n">
         <v>0.0350183444184791</v>
@@ -4838,7 +4836,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.1123064155994352</v>
+        <v>-0.0529444242457659</v>
       </c>
       <c r="C101" t="n">
         <v>0.0023913861734134</v>
@@ -4884,7 +4882,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9991549182197385</v>
+        <v>0.4510732279163751</v>
       </c>
       <c r="C102" t="n">
         <v>0.0144576788379525</v>
@@ -5018,7 +5016,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.5970241944274082</v>
+        <v>-0.2745021426879138</v>
       </c>
       <c r="C105" t="n">
         <v>0.008068469841716301</v>
@@ -5064,7 +5062,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2.03974261414426</v>
+        <v>0.910214626686354</v>
       </c>
       <c r="C106" t="n">
         <v>2.858338909901138e-05</v>
@@ -5110,7 +5108,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.4539766290853327</v>
+        <v>0.2057884581363809</v>
       </c>
       <c r="C107" t="n">
         <v>0.0151128293258008</v>
@@ -5156,7 +5154,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1126027398506791</v>
+        <v>0.05117588562073847</v>
       </c>
       <c r="C108" t="n">
         <v>0.0003971617517497</v>
@@ -5202,7 +5200,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.4285101144148127</v>
+        <v>0.1947290966215777</v>
       </c>
       <c r="C109" t="n">
         <v>0.0121126225751265</v>
@@ -5248,7 +5246,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9383868409721245</v>
+        <v>0.4240079906223033</v>
       </c>
       <c r="C110" t="n">
         <v>0.0008262411087123</v>
@@ -5382,7 +5380,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.853320189796572</v>
+        <v>0.8374879576890378</v>
       </c>
       <c r="C113" t="n">
         <v>0.0140145457371715</v>
@@ -5428,7 +5426,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01131502413021855</v>
+        <v>0.005087788259536815</v>
       </c>
       <c r="C114" t="n">
         <v>0.0008400351440552</v>
@@ -5474,7 +5472,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.1405694079022559</v>
+        <v>-0.0644981951377009</v>
       </c>
       <c r="C115" t="n">
         <v>0.0017717611595902</v>
@@ -5520,7 +5518,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.04196681063981746</v>
+        <v>-0.01926510485174523</v>
       </c>
       <c r="C116" t="n">
         <v>1.246960334549534e-05</v>
@@ -5566,7 +5564,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.102348298237423</v>
+        <v>-0.04714570073991305</v>
       </c>
       <c r="C117" t="n">
         <v>0.0025139551013159</v>
@@ -5634,7 +5632,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1.53092170489745</v>
+        <v>0.6977093313010464</v>
       </c>
       <c r="C119" t="n">
         <v>-0.0041895376614704</v>
@@ -5714,7 +5712,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.01817957670243723</v>
+        <v>-0.008426518060619267</v>
       </c>
       <c r="C121" t="n">
         <v>-3.810381748778261e-05</v>
@@ -5760,7 +5758,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1.007527073908589</v>
+        <v>0.461291030762172</v>
       </c>
       <c r="C122" t="n">
         <v>0.0322878122476463</v>
@@ -5850,7 +5848,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>9.720372558630595</v>
+        <v>4.407913034001234</v>
       </c>
       <c r="C124" t="n">
         <v>0.06717046511007491</v>
@@ -5940,7 +5938,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.0246043620972402</v>
+        <v>-0.01145907699695559</v>
       </c>
       <c r="C126" t="n">
         <v>0.0011213638435656</v>
@@ -5986,7 +5984,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1.919172880326013</v>
+        <v>0.8601884253373658</v>
       </c>
       <c r="C127" t="n">
         <v>0.0038741953035361</v>
@@ -6076,7 +6074,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1.031325225614492</v>
+        <v>0.4645941904880428</v>
       </c>
       <c r="C129" t="n">
         <v>0.0626338905758764</v>
@@ -6122,7 +6120,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.0125090236917806</v>
+        <v>-0.005771057617559061</v>
       </c>
       <c r="C130" t="n">
         <v>0.0005339842273818</v>
@@ -6168,7 +6166,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.550545895263033</v>
+        <v>-0.2612606159909724</v>
       </c>
       <c r="C131" t="n">
         <v>0.009380783655291901</v>
@@ -6214,7 +6212,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1.926528421975905</v>
+        <v>0.874647971743877</v>
       </c>
       <c r="C132" t="n">
         <v>0.0295650557310195</v>
@@ -6260,7 +6258,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.4414985177774517</v>
+        <v>0.1978865013121916</v>
       </c>
       <c r="C133" t="n">
         <v>0.0008132595080533</v>
@@ -6328,7 +6326,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1228440432366212</v>
+        <v>0.05555775947996406</v>
       </c>
       <c r="C135" t="n">
         <v>-0.0001496666281931</v>
@@ -6374,7 +6372,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1.710410686582818</v>
+        <v>0.7774601199329827</v>
       </c>
       <c r="C136" t="n">
         <v>0.0041007001296802</v>
@@ -6420,7 +6418,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5.290261445700197</v>
+        <v>2.391801855869526</v>
       </c>
       <c r="C137" t="n">
         <v>0.0558418706457766</v>
@@ -6466,7 +6464,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.2237502809156045</v>
+        <v>0.1009861547825469</v>
       </c>
       <c r="C138" t="n">
         <v>0.0044325238631579</v>
@@ -6512,7 +6510,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.02444464607907596</v>
+        <v>0.01108569343297475</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
@@ -6536,7 +6534,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.141093605189289</v>
+        <v>1.407454236617189</v>
       </c>
       <c r="C140" t="n">
         <v>0.0031584697365718</v>
@@ -6582,7 +6580,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>32.95043615451242</v>
+        <v>14.88852639122148</v>
       </c>
       <c r="C141" t="n">
         <v>0.026240356280179</v>
@@ -6628,7 +6626,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.4125796475815162</v>
+        <v>0.1867058711607109</v>
       </c>
       <c r="C142" t="n">
         <v>0.0154081302285389</v>
@@ -6718,7 +6716,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.6826877045233977</v>
+        <v>-0.3134006407268842</v>
       </c>
       <c r="C144" t="n">
         <v>0.0005768162964015999</v>
@@ -6764,7 +6762,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.9334399990753349</v>
+        <v>-0.4326010346576309</v>
       </c>
       <c r="C145" t="n">
         <v>0.0132816417825692</v>
@@ -6810,7 +6808,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1.340281206569145</v>
+        <v>0.6084414948724509</v>
       </c>
       <c r="C146" t="n">
         <v>0.008403592263792699</v>
@@ -6900,7 +6898,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.02410837194370014</v>
+        <v>0.01087579351693688</v>
       </c>
       <c r="C148" t="n">
         <v>0.0273963132190664</v>
@@ -6946,7 +6944,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1.055630417904227</v>
+        <v>0.4729929407992151</v>
       </c>
       <c r="C149" t="n">
         <v>-0.0002920628651564</v>
@@ -7018,7 +7016,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>16.14302450784344</v>
+        <v>7.271848937778437</v>
       </c>
       <c r="C151" t="n">
         <v>0.008585118711848401</v>
@@ -7064,7 +7062,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.6677156433661035</v>
+        <v>0.3011858488940741</v>
       </c>
       <c r="C152" t="n">
         <v>0.0185551667773211</v>
@@ -7110,7 +7108,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1.381576782047327</v>
+        <v>0.6282506309832224</v>
       </c>
       <c r="C153" t="n">
         <v>0.0534297351538146</v>
@@ -7156,7 +7154,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>7.253283268998731</v>
+        <v>3.291261655968028</v>
       </c>
       <c r="C154" t="n">
         <v>0.08220932501200059</v>
@@ -7246,7 +7244,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.4607919828063339</v>
+        <v>0.2104548000706071</v>
       </c>
       <c r="C156" t="n">
         <v>0.109103220585694</v>
@@ -7292,7 +7290,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1.258582404362105</v>
+        <v>-0.5775651982552754</v>
       </c>
       <c r="C157" t="n">
         <v>0.0026428886380495</v>
@@ -7382,7 +7380,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.3446030365563189</v>
+        <v>0.1565577741889781</v>
       </c>
       <c r="C159" t="n">
         <v>0.0032766797968991</v>
@@ -7428,7 +7426,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.6813452102997338</v>
+        <v>0.3087935979491265</v>
       </c>
       <c r="C160" t="n">
         <v>0.0092606830803563</v>
@@ -7540,7 +7538,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1.96705239404251</v>
+        <v>0.872287743729711</v>
       </c>
       <c r="C163" t="n">
         <v>0.00012139687698</v>
@@ -7586,7 +7584,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.2636731115265257</v>
+        <v>-0.1212060853423809</v>
       </c>
       <c r="C164" t="n">
         <v>0.002875857863745</v>
@@ -7632,7 +7630,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-13.49038786137611</v>
+        <v>-6.264451422695034</v>
       </c>
       <c r="C165" t="n">
         <v>0.415634990056796</v>
@@ -7678,7 +7676,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.708305067294418</v>
+        <v>0.3232792931680474</v>
       </c>
       <c r="C166" t="n">
         <v>0.0008769008489933</v>
@@ -7724,7 +7722,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>10.01773955554</v>
+        <v>4.470225075793977</v>
       </c>
       <c r="C167" t="n">
         <v>0.0017114798860924</v>
@@ -7770,7 +7768,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>6.967837710872732</v>
+        <v>3.128428753194735</v>
       </c>
       <c r="C168" t="n">
         <v>0.0130841633195737</v>
@@ -7816,7 +7814,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1.273105752919394</v>
+        <v>0.5761726712294089</v>
       </c>
       <c r="C169" t="n">
         <v>0.0020693982800105</v>
@@ -7928,7 +7926,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.04302100986457532</v>
+        <v>0.01955086850501115</v>
       </c>
       <c r="C172" t="n">
         <v>0.0185915726396952</v>
@@ -7974,7 +7972,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.425329993844642</v>
+        <v>0.192813690058039</v>
       </c>
       <c r="C173" t="n">
         <v>0.0070657760832523</v>
@@ -8020,7 +8018,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.283613998582203</v>
+        <v>0.1281497226640275</v>
       </c>
       <c r="C174" t="n">
         <v>0.0015974969955325</v>
@@ -8100,7 +8098,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.06113098171471679</v>
+        <v>0.02768573957079592</v>
       </c>
       <c r="C176" t="n">
         <v>0.008705379153945</v>
@@ -8168,7 +8166,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.08367485751043877</v>
+        <v>-0.03860529176123872</v>
       </c>
       <c r="C178" t="n">
         <v>0.002485836816215</v>
@@ -8258,7 +8256,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.01549894367290857</v>
+        <v>0.007017267215865439</v>
       </c>
       <c r="C180" t="n">
         <v>3.419334560111687e-05</v>
@@ -8304,7 +8302,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.06544692695426088</v>
+        <v>0.02949382145888608</v>
       </c>
       <c r="C181" t="n">
         <v>0.0137122512663739</v>
@@ -8350,7 +8348,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.2361654136876929</v>
+        <v>-0.1088546359521434</v>
       </c>
       <c r="C182" t="n">
         <v>0.001126773649266</v>
@@ -8396,7 +8394,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.08790092512293504</v>
+        <v>-0.04055186595193401</v>
       </c>
       <c r="C183" t="n">
         <v>0.0007050694403357</v>
@@ -8442,7 +8440,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-1.380814677715291</v>
+        <v>-0.6405845768853782</v>
       </c>
       <c r="C184" t="n">
         <v>0.0142072557861361</v>
@@ -8488,7 +8486,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.05938210260583071</v>
+        <v>0.02703603960685793</v>
       </c>
       <c r="C185" t="n">
         <v>0.0008324032147459</v>
@@ -8600,7 +8598,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1.733440199667813</v>
+        <v>0.7894592437017822</v>
       </c>
       <c r="C188" t="n">
         <v>0.0011050418336804</v>
@@ -8668,7 +8666,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1.578929757067002</v>
+        <v>0.7093367838140802</v>
       </c>
       <c r="C190" t="n">
         <v>0.0071440337722364</v>
@@ -8714,7 +8712,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.4081803286981486</v>
+        <v>0.1845868840928677</v>
       </c>
       <c r="C191" t="n">
         <v>0.0011612431117283</v>
@@ -8760,7 +8758,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>8.432600906860602</v>
+        <v>3.794339980874508</v>
       </c>
       <c r="C192" t="n">
         <v>0.0470292534931529</v>
@@ -8806,7 +8804,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.05780944975514957</v>
+        <v>0.02606582576821993</v>
       </c>
       <c r="C193" t="n">
         <v>0.0017128500444439</v>
@@ -8852,7 +8850,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.3307153961115109</v>
+        <v>0.1498967943096072</v>
       </c>
       <c r="C194" t="n">
         <v>0.0006097602918739</v>
@@ -8986,7 +8984,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.1327024679152053</v>
+        <v>0.05934910501776641</v>
       </c>
       <c r="C197" t="n">
         <v>0.0007015931556658001</v>
@@ -9032,7 +9030,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.8281899464313849</v>
+        <v>0.3753111939592533</v>
       </c>
       <c r="C198" t="n">
         <v>-0.0014714473750912</v>
@@ -9078,7 +9076,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1.437071791314745</v>
+        <v>0.6512054749452568</v>
       </c>
       <c r="C199" t="n">
         <v>0.0251375805598242</v>
@@ -9190,7 +9188,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4.390307897704657</v>
+        <v>1.99888433229684</v>
       </c>
       <c r="C202" t="n">
         <v>0.0538585536222345</v>
@@ -9236,7 +9234,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4.602371409955975</v>
+        <v>2.097251524582723</v>
       </c>
       <c r="C203" t="n">
         <v>0.0115569530208183</v>
@@ -9282,7 +9280,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.8286295844832858</v>
+        <v>-0.3855230029719006</v>
       </c>
       <c r="C204" t="n">
         <v>0.009347222498092</v>
@@ -9328,7 +9326,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.1343663635488938</v>
+        <v>0.06100622457474092</v>
       </c>
       <c r="C205" t="n">
         <v>0.0061882446197187</v>
@@ -9374,7 +9372,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>18.38598913777712</v>
+        <v>8.322431314290123</v>
       </c>
       <c r="C206" t="n">
         <v>0.3290159790462937</v>
@@ -9420,7 +9418,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.6210218223339774</v>
+        <v>0.2825937569352188</v>
       </c>
       <c r="C207" t="n">
         <v>0.0011051128805914</v>
@@ -9500,7 +9498,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.006393835911865727</v>
+        <v>0.002878347126596649</v>
       </c>
       <c r="C209" t="n">
         <v>6.602478018620148e-05</v>
@@ -9546,7 +9544,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3.801627322861305</v>
+        <v>1.710601539875793</v>
       </c>
       <c r="C210" t="n">
         <v>0.029923409092974</v>
@@ -9614,7 +9612,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4.968074684337993</v>
+        <v>2.25069775343092</v>
       </c>
       <c r="C212" t="n">
         <v>0.0398947141424286</v>
@@ -9660,7 +9658,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.01520193024258129</v>
+        <v>0.006986892606734895</v>
       </c>
       <c r="C213" t="n">
         <v>0.009186574626594699</v>
@@ -9728,7 +9726,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.005550710527248677</v>
+        <v>0.00251120557133669</v>
       </c>
       <c r="C215" t="n">
         <v>0.0002842880750307</v>
@@ -9796,7 +9794,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1.879704531881362</v>
+        <v>0.8535891004401519</v>
       </c>
       <c r="C217" t="n">
         <v>0.001219697801722</v>
@@ -9842,7 +9840,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>3.139127181682474</v>
+        <v>1.424356521899251</v>
       </c>
       <c r="C218" t="n">
         <v>0.0152707471672519</v>
@@ -9888,7 +9886,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1.747778224785372</v>
+        <v>0.7939235327916645</v>
       </c>
       <c r="C219" t="n">
         <v>0.0315420784342396</v>
@@ -9934,7 +9932,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.2872973244075805</v>
+        <v>0.1307341224030873</v>
       </c>
       <c r="C220" t="n">
         <v>0.009537904847010399</v>

--- a/data/processed/final_df.xlsx
+++ b/data/processed/final_df.xlsx
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.315703863320737</v>
+        <v>1.150699125838331</v>
       </c>
       <c r="C3" t="n">
         <v>0.0029020482331933</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8408309599413208</v>
+        <v>3.064718437098484</v>
       </c>
       <c r="C4" t="n">
         <v>0.0582889032453821</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01780712225416288</v>
+        <v>0.06490462231291796</v>
       </c>
       <c r="C6" t="n">
         <v>0.0013901095367767</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.213422368145572</v>
+        <v>8.067633881149339</v>
       </c>
       <c r="C8" t="n">
         <v>0.0001197394905758</v>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.004789918183667</v>
+        <v>3.662327309978054</v>
       </c>
       <c r="C9" t="n">
         <v>0.0414111205140772</v>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01729916459285435</v>
+        <v>-0.06305318333880322</v>
       </c>
       <c r="C10" t="n">
         <v>6.44222479081394e-05</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9772208395473495</v>
+        <v>3.561841638522239</v>
       </c>
       <c r="C12" t="n">
         <v>0.0927459853654094</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2478137813650726</v>
+        <v>-0.9032486919482993</v>
       </c>
       <c r="C13" t="n">
         <v>0.0024527542674774</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04105821499710726</v>
+        <v>0.1496518021943073</v>
       </c>
       <c r="C14" t="n">
         <v>0.0005733605753451</v>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1883844708318053</v>
+        <v>0.6866366588851185</v>
       </c>
       <c r="C15" t="n">
         <v>0.0007543214288979</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1082697748595172</v>
+        <v>-0.3946291121530785</v>
       </c>
       <c r="C16" t="n">
         <v>0.0001649271037374</v>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3674857630468443</v>
+        <v>1.339437350712521</v>
       </c>
       <c r="C17" t="n">
         <v>0.001489577448378</v>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.190139038687764</v>
+        <v>4.337900515499096</v>
       </c>
       <c r="C19" t="n">
         <v>0.0039251157065775</v>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.806782085350569</v>
+        <v>10.2303521346216</v>
       </c>
       <c r="C20" t="n">
         <v>0.008118862170631</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.03367756360526309</v>
+        <v>-0.1227502970452106</v>
       </c>
       <c r="C21" t="n">
         <v>0.0028230377108678</v>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02216006007024079</v>
+        <v>0.08077050905596581</v>
       </c>
       <c r="C23" t="n">
         <v>0.0052004625967992</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.01853088138594419</v>
+        <v>-0.06754262930940556</v>
       </c>
       <c r="C24" t="n">
         <v>0.0014959374956087</v>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.2122450152708984</v>
+        <v>-0.7736052101701465</v>
       </c>
       <c r="C25" t="n">
         <v>0.0053696977654883</v>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01295399164792485</v>
+        <v>0.0472155985314642</v>
       </c>
       <c r="C26" t="n">
         <v>0.0042194390905525</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3506307477461354</v>
+        <v>1.27800303322109</v>
       </c>
       <c r="C28" t="n">
         <v>0.0228260416174028</v>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.434734238168285</v>
+        <v>23.45376133500063</v>
       </c>
       <c r="C29" t="n">
         <v>0.2798757621949702</v>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.06760722291782455</v>
+        <v>0.2464194498401245</v>
       </c>
       <c r="C31" t="n">
         <v>0.0017987590540859</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03865464736951324</v>
+        <v>0.1408911138109794</v>
       </c>
       <c r="C32" t="n">
         <v>0.0020577994915981</v>
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1374209071780511</v>
+        <v>0.5008811615366352</v>
       </c>
       <c r="C33" t="n">
         <v>0.0055981434273776</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.102586422263142</v>
+        <v>0.3739140382363689</v>
       </c>
       <c r="C34" t="n">
         <v>0.0298360328199072</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-2.245762061757237</v>
+        <v>-8.185507817747371</v>
       </c>
       <c r="C35" t="n">
         <v>0.2060652808912956</v>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.302162964729608</v>
+        <v>-1.101344328567296</v>
       </c>
       <c r="C36" t="n">
         <v>0.0010882759043315</v>
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1485437656878676</v>
+        <v>-0.5414225202309575</v>
       </c>
       <c r="C37" t="n">
         <v>0.0152966477911877</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.7896123795119</v>
+        <v>61.19593243190997</v>
       </c>
       <c r="C38" t="n">
         <v>0.2679324047439498</v>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.7941577712163406</v>
+        <v>2.894600792984135</v>
       </c>
       <c r="C40" t="n">
         <v>0.0272446576684589</v>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.307306427726043</v>
+        <v>8.40982895013919</v>
       </c>
       <c r="C41" t="n">
         <v>0.1913967073035369</v>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2950606030660627</v>
+        <v>1.075457152934838</v>
       </c>
       <c r="C42" t="n">
         <v>0.0273904459512211</v>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.734384289117584</v>
+        <v>6.321602986935155</v>
       </c>
       <c r="C44" t="n">
         <v>0.07422022871353071</v>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01656188844832533</v>
+        <v>0.06036590860580737</v>
       </c>
       <c r="C45" t="n">
         <v>0.0003439872338242</v>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.00730578206011856</v>
+        <v>0.02662861626626027</v>
       </c>
       <c r="C46" t="n">
         <v>0.0001062191037497</v>
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1968425356236457</v>
+        <v>0.7174651943990056</v>
       </c>
       <c r="C47" t="n">
         <v>0.012944070569465</v>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.174942865082052</v>
+        <v>0.637643770982474</v>
       </c>
       <c r="C48" t="n">
         <v>0.0068531897760205</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03386808588978016</v>
+        <v>0.1234447257542561</v>
       </c>
       <c r="C50" t="n">
         <v>0.0010286994869248</v>
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.325573547517119</v>
+        <v>-1.186672828718042</v>
       </c>
       <c r="C51" t="n">
         <v>0.0007201280722213</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.308081701672813</v>
+        <v>-4.767786034695486</v>
       </c>
       <c r="C52" t="n">
         <v>0.0023299505844652</v>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04451590408861341</v>
+        <v>0.1622546248939291</v>
       </c>
       <c r="C54" t="n">
         <v>-5.822538179239378e-06</v>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.156819538207579</v>
+        <v>-0.5715866243502472</v>
       </c>
       <c r="C56" t="n">
         <v>0.0021606210422903</v>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3988978047267511</v>
+        <v>1.453930117831889</v>
       </c>
       <c r="C57" t="n">
         <v>0.0054821511313886</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.7840134206067394</v>
+        <v>2.857625967095462</v>
       </c>
       <c r="C58" t="n">
         <v>-0.0058932174459133</v>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4139948702968894</v>
+        <v>1.508956939396733</v>
       </c>
       <c r="C59" t="n">
         <v>0.017896095352868</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.182278777158604</v>
+        <v>15.24385695590725</v>
       </c>
       <c r="C60" t="n">
         <v>0.0008905045628787</v>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0728655333219429</v>
+        <v>0.2655853007795487</v>
       </c>
       <c r="C61" t="n">
         <v>0.0019471561275668</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8490039650636145</v>
+        <v>3.094507967548864</v>
       </c>
       <c r="C62" t="n">
         <v>0.0015756189545835</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.05818816150016095</v>
+        <v>-0.2120882078162924</v>
       </c>
       <c r="C63" t="n">
         <v>0.0016844822326333</v>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.165771046793598</v>
+        <v>7.893951072050955</v>
       </c>
       <c r="C64" t="n">
         <v>0.0474121291160956</v>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.4896967220176324</v>
+        <v>-1.78488024829493</v>
       </c>
       <c r="C65" t="n">
         <v>0.0106177369718507</v>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01443771336751657</v>
+        <v>0.05262356936768738</v>
       </c>
       <c r="C66" t="n">
         <v>0.0059851165628579</v>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.1116706412641594</v>
+        <v>-0.4070248236206286</v>
       </c>
       <c r="C67" t="n">
         <v>0.0109828702777662</v>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1097669284146177</v>
+        <v>0.400086040265959</v>
       </c>
       <c r="C70" t="n">
         <v>0.0266252209215513</v>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.9256418868745987</v>
+        <v>-3.373843129007983</v>
       </c>
       <c r="C71" t="n">
         <v>0.0070811723417455</v>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5.461328019132075e-05</v>
+        <v>0.000199058234873329</v>
       </c>
       <c r="C72" t="n">
         <v>0.0019267411141503</v>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.218725361269418</v>
+        <v>4.442093907558487</v>
       </c>
       <c r="C73" t="n">
         <v>0.0074817151909634</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5864776232289189</v>
+        <v>2.137633924636648</v>
       </c>
       <c r="C74" t="n">
         <v>0.008610299842740299</v>
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.07078519165102456</v>
+        <v>0.2580027285645905</v>
       </c>
       <c r="C75" t="n">
         <v>0.0001289817665627</v>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.05911216451769491</v>
+        <v>0.2154560774817583</v>
       </c>
       <c r="C76" t="n">
         <v>0.0017099868211802</v>
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09498102911665443</v>
+        <v>0.3461933789030712</v>
       </c>
       <c r="C77" t="n">
         <v>0.0038392151113423</v>
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2353964374721572</v>
+        <v>0.8579891040151122</v>
       </c>
       <c r="C78" t="n">
         <v>0.0069911485577101</v>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.622256617181786</v>
+        <v>2.268043659354123</v>
       </c>
       <c r="C81" t="n">
         <v>0.009064411575761299</v>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01687886858759148</v>
+        <v>0.06152125958987534</v>
       </c>
       <c r="C82" t="n">
         <v>0.0173962643801109</v>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3035959722270954</v>
+        <v>1.106567452723376</v>
       </c>
       <c r="C84" t="n">
         <v>0.0114475855611469</v>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.005278783549737248</v>
+        <v>0.01924047286681849</v>
       </c>
       <c r="C85" t="n">
         <v>0.0022682304900321</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1973412294724017</v>
+        <v>0.7192828679928236</v>
       </c>
       <c r="C86" t="n">
         <v>0.0022879992489724</v>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.03439864623789232</v>
+        <v>-0.1253785485537475</v>
       </c>
       <c r="C87" t="n">
         <v>0.0012933315549431</v>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8.449943749463658</v>
+        <v>30.79893538082093</v>
       </c>
       <c r="C88" t="n">
         <v>0.384088590210787</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>55.06250119425792</v>
+        <v>200.6955864405566</v>
       </c>
       <c r="C89" t="n">
         <v>0.1551465609418146</v>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.1133745449584948</v>
+        <v>-0.4132353288420759</v>
       </c>
       <c r="C90" t="n">
         <v>0.0035675530316513</v>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.504230212958089</v>
+        <v>5.482721601515428</v>
       </c>
       <c r="C91" t="n">
         <v>0.0036998155098608</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.658366926432009</v>
+        <v>6.044529682000781</v>
       </c>
       <c r="C92" t="n">
         <v>0.0012733690826122</v>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.04602804249228346</v>
+        <v>-0.1677661708121427</v>
       </c>
       <c r="C93" t="n">
         <v>0.0041291929867582</v>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9187114928168142</v>
+        <v>3.348582752716972</v>
       </c>
       <c r="C94" t="n">
         <v>0.0003882428819826</v>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.571189236746637</v>
+        <v>2.08190976346993</v>
       </c>
       <c r="C95" t="n">
         <v>0.0021626999604626</v>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03804016996145163</v>
+        <v>0.1386514243473583</v>
       </c>
       <c r="C96" t="n">
         <v>0.0014019398105884</v>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3163520907983159</v>
+        <v>1.153061829873526</v>
       </c>
       <c r="C97" t="n">
         <v>0.0002967504259973</v>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.445035130819122</v>
+        <v>5.266963300192281</v>
       </c>
       <c r="C98" t="n">
         <v>0.058077348382856</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.5203403433699363</v>
+        <v>-1.896572224223629</v>
       </c>
       <c r="C99" t="n">
         <v>0.0116499320670156</v>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.022122855139452</v>
+        <v>3.725503589144995</v>
       </c>
       <c r="C100" t="n">
         <v>0.0350183444184791</v>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.0529444242457659</v>
+        <v>-0.1929754740939682</v>
       </c>
       <c r="C101" t="n">
         <v>0.0023913861734134</v>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.4510732279163751</v>
+        <v>1.64410268405592</v>
       </c>
       <c r="C102" t="n">
         <v>0.0144576788379525</v>
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.2745021426879138</v>
+        <v>-1.00052426444597</v>
       </c>
       <c r="C105" t="n">
         <v>0.008068469841716301</v>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.910214626686354</v>
+        <v>3.317612791418929</v>
       </c>
       <c r="C106" t="n">
         <v>2.858338909901138e-05</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.2057884581363809</v>
+        <v>0.7500719072435792</v>
       </c>
       <c r="C107" t="n">
         <v>0.0151128293258008</v>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.05117588562073847</v>
+        <v>0.1865293830375439</v>
       </c>
       <c r="C108" t="n">
         <v>0.0003971617517497</v>
@@ -5200,7 +5200,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1947290966215777</v>
+        <v>0.7097619867581108</v>
       </c>
       <c r="C109" t="n">
         <v>0.0121126225751265</v>
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.4240079906223033</v>
+        <v>1.545453448131762</v>
       </c>
       <c r="C110" t="n">
         <v>0.0008262411087123</v>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.8374879576890378</v>
+        <v>3.052533632867978</v>
       </c>
       <c r="C113" t="n">
         <v>0.0140145457371715</v>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.005087788259536815</v>
+        <v>0.01854432011416879</v>
       </c>
       <c r="C114" t="n">
         <v>0.0008400351440552</v>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.0644981951377009</v>
+        <v>-0.2350874518367907</v>
       </c>
       <c r="C115" t="n">
         <v>0.0017717611595902</v>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.01926510485174523</v>
+        <v>-0.07021877742929379</v>
       </c>
       <c r="C116" t="n">
         <v>1.246960334549534e-05</v>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.04714570073991305</v>
+        <v>-0.1718398883618921</v>
       </c>
       <c r="C117" t="n">
         <v>0.0025139551013159</v>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.6977093313010464</v>
+        <v>2.543058894409878</v>
       </c>
       <c r="C119" t="n">
         <v>-0.0041895376614704</v>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.008426518060619267</v>
+        <v>-0.03071355182107647</v>
       </c>
       <c r="C121" t="n">
         <v>-3.810381748778261e-05</v>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.461291030762172</v>
+        <v>1.681345233700306</v>
       </c>
       <c r="C122" t="n">
         <v>0.0322878122476463</v>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4.407913034001234</v>
+        <v>16.06626419342724</v>
       </c>
       <c r="C124" t="n">
         <v>0.06717046511007491</v>
@@ -5938,7 +5938,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.01145907699695559</v>
+        <v>-0.04176683093014531</v>
       </c>
       <c r="C126" t="n">
         <v>0.0011213638435656</v>
@@ -5984,7 +5984,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.8601884253373658</v>
+        <v>3.135273856583627</v>
       </c>
       <c r="C127" t="n">
         <v>0.0038741953035361</v>
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.4645941904880428</v>
+        <v>1.693384817153874</v>
       </c>
       <c r="C129" t="n">
         <v>0.0626338905758764</v>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.005771057617559061</v>
+        <v>-0.0210347472021311</v>
       </c>
       <c r="C130" t="n">
         <v>0.0005339842273818</v>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.2612606159909724</v>
+        <v>-0.9522606384178791</v>
       </c>
       <c r="C131" t="n">
         <v>0.009380783655291901</v>
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.874647971743877</v>
+        <v>3.187977004511492</v>
       </c>
       <c r="C132" t="n">
         <v>0.0295650557310195</v>
@@ -6258,7 +6258,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1978865013121916</v>
+        <v>0.7212703122476727</v>
       </c>
       <c r="C133" t="n">
         <v>0.0008132595080533</v>
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.05555775947996406</v>
+        <v>0.2025007378581915</v>
       </c>
       <c r="C135" t="n">
         <v>-0.0001496666281931</v>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.7774601199329827</v>
+        <v>2.833740046672035</v>
       </c>
       <c r="C136" t="n">
         <v>0.0041007001296802</v>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2.391801855869526</v>
+        <v>8.717803690388925</v>
       </c>
       <c r="C137" t="n">
         <v>0.0558418706457766</v>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.1009861547825469</v>
+        <v>0.3680812734052412</v>
       </c>
       <c r="C138" t="n">
         <v>0.0044325238631579</v>
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.01108569343297475</v>
+        <v>0.04040589686948526</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1.407454236617189</v>
+        <v>5.129985875679571</v>
       </c>
       <c r="C140" t="n">
         <v>0.0031584697365718</v>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>14.88852639122148</v>
+        <v>54.26672364156068</v>
       </c>
       <c r="C141" t="n">
         <v>0.026240356280179</v>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.1867058711607109</v>
+        <v>0.680518383505642</v>
       </c>
       <c r="C142" t="n">
         <v>0.0154081302285389</v>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.3134006407268842</v>
+        <v>-1.1423041819264</v>
       </c>
       <c r="C144" t="n">
         <v>0.0005768162964015999</v>
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.4326010346576309</v>
+        <v>-1.576773965263655</v>
       </c>
       <c r="C145" t="n">
         <v>0.0132816417825692</v>
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.6084414948724509</v>
+        <v>2.217689352639317</v>
       </c>
       <c r="C146" t="n">
         <v>0.008403592263792699</v>
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.01087579351693688</v>
+        <v>0.03964083923807789</v>
       </c>
       <c r="C148" t="n">
         <v>0.0273963132190664</v>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.4729929407992151</v>
+        <v>1.723997159174478</v>
       </c>
       <c r="C149" t="n">
         <v>-0.0002920628651564</v>
@@ -7016,7 +7016,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>7.271848937778437</v>
+        <v>26.50493449118464</v>
       </c>
       <c r="C151" t="n">
         <v>0.008585118711848401</v>
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.3011858488940741</v>
+        <v>1.097782869654614</v>
       </c>
       <c r="C152" t="n">
         <v>0.0185551667773211</v>
@@ -7108,7 +7108,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.6282506309832224</v>
+        <v>2.289891052569481</v>
       </c>
       <c r="C153" t="n">
         <v>0.0534297351538146</v>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3.291261655968028</v>
+        <v>11.99621655114178</v>
       </c>
       <c r="C154" t="n">
         <v>0.08220932501200059</v>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.2104548000706071</v>
+        <v>0.7670801108432977</v>
       </c>
       <c r="C156" t="n">
         <v>0.109103220585694</v>
@@ -7290,7 +7290,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.5775651982552754</v>
+        <v>-2.105149305923407</v>
       </c>
       <c r="C157" t="n">
         <v>0.0026428886380495</v>
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1565577741889781</v>
+        <v>0.5706325288754195</v>
       </c>
       <c r="C159" t="n">
         <v>0.0032766797968991</v>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.3087935979491265</v>
+        <v>1.125512115965269</v>
       </c>
       <c r="C160" t="n">
         <v>0.0092606830803563</v>
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.872287743729711</v>
+        <v>3.179374283328061</v>
       </c>
       <c r="C163" t="n">
         <v>0.00012139687698</v>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.1212060853423809</v>
+        <v>-0.4417802651596588</v>
       </c>
       <c r="C164" t="n">
         <v>0.002875857863745</v>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-6.264451422695034</v>
+        <v>-22.83310283291796</v>
       </c>
       <c r="C165" t="n">
         <v>0.415634990056796</v>
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.3232792931680474</v>
+        <v>1.178310572880693</v>
       </c>
       <c r="C166" t="n">
         <v>0.0008769008489933</v>
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4.470225075793977</v>
+        <v>16.29338340339163</v>
       </c>
       <c r="C167" t="n">
         <v>0.0017114798860924</v>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3.128428753194735</v>
+        <v>11.40271200258139</v>
       </c>
       <c r="C168" t="n">
         <v>0.0130841633195737</v>
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.5761726712294089</v>
+        <v>2.10007372777078</v>
       </c>
       <c r="C169" t="n">
         <v>0.0020693982800105</v>
@@ -7926,7 +7926,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.01955086850501115</v>
+        <v>0.07126034842101588</v>
       </c>
       <c r="C172" t="n">
         <v>0.0185915726396952</v>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.192813690058039</v>
+        <v>0.7027805813514566</v>
       </c>
       <c r="C173" t="n">
         <v>0.0070657760832523</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.1281497226640275</v>
+        <v>0.4670889114084369</v>
       </c>
       <c r="C174" t="n">
         <v>0.0015974969955325</v>
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.02768573957079592</v>
+        <v>0.100910885242911</v>
       </c>
       <c r="C176" t="n">
         <v>0.008705379153945</v>
@@ -8166,7 +8166,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.03860529176123872</v>
+        <v>-0.140711219099843</v>
       </c>
       <c r="C178" t="n">
         <v>0.002485836816215</v>
@@ -8256,7 +8256,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.007017267215865439</v>
+        <v>0.02557701754465654</v>
       </c>
       <c r="C180" t="n">
         <v>3.419334560111687e-05</v>
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.02949382145888608</v>
+        <v>0.1075011063006614</v>
       </c>
       <c r="C181" t="n">
         <v>0.0137122512663739</v>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.1088546359521434</v>
+        <v>-0.3967608540359397</v>
       </c>
       <c r="C182" t="n">
         <v>0.001126773649266</v>
@@ -8394,7 +8394,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.04055186595193401</v>
+        <v>-0.1478062264147738</v>
       </c>
       <c r="C183" t="n">
         <v>0.0007050694403357</v>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.6405845768853782</v>
+        <v>-2.334846665777574</v>
       </c>
       <c r="C184" t="n">
         <v>0.0142072557861361</v>
@@ -8486,7 +8486,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.02703603960685793</v>
+        <v>0.09854281418829389</v>
       </c>
       <c r="C185" t="n">
         <v>0.0008324032147459</v>
@@ -8598,7 +8598,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.7894592437017822</v>
+        <v>2.877475277170485</v>
       </c>
       <c r="C188" t="n">
         <v>0.0011050418336804</v>
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.7093367838140802</v>
+        <v>2.585439431986264</v>
       </c>
       <c r="C190" t="n">
         <v>0.0071440337722364</v>
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.1845868840928677</v>
+        <v>0.6727949538935287</v>
       </c>
       <c r="C191" t="n">
         <v>0.0011612431117283</v>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3.794339980874508</v>
+        <v>13.8298709847905</v>
       </c>
       <c r="C192" t="n">
         <v>0.0470292534931529</v>
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.02606582576821993</v>
+        <v>0.09500651214797716</v>
       </c>
       <c r="C193" t="n">
         <v>0.0017128500444439</v>
@@ -8850,7 +8850,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.1498967943096072</v>
+        <v>0.5463541318871892</v>
       </c>
       <c r="C194" t="n">
         <v>0.0006097602918739</v>
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.05934910501776641</v>
+        <v>0.2163196944911928</v>
       </c>
       <c r="C197" t="n">
         <v>0.0007015931556658001</v>
@@ -9030,7 +9030,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.3753111939592533</v>
+        <v>1.367960018808822</v>
       </c>
       <c r="C198" t="n">
         <v>-0.0014714473750912</v>
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.6512054749452568</v>
+        <v>2.373558444545717</v>
       </c>
       <c r="C199" t="n">
         <v>0.0251375805598242</v>
@@ -9188,7 +9188,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1.99888433229684</v>
+        <v>7.285670912075997</v>
       </c>
       <c r="C202" t="n">
         <v>0.0538585536222345</v>
@@ -9234,7 +9234,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2.097251524582723</v>
+        <v>7.644206411084259</v>
       </c>
       <c r="C203" t="n">
         <v>0.0115569530208183</v>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.3855230029719006</v>
+        <v>-1.405180721718444</v>
       </c>
       <c r="C204" t="n">
         <v>0.009347222498092</v>
@@ -9326,7 +9326,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.06100622457474092</v>
+        <v>0.2223596776753166</v>
       </c>
       <c r="C205" t="n">
         <v>0.0061882446197187</v>
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>8.322431314290123</v>
+        <v>30.33416929863131</v>
       </c>
       <c r="C206" t="n">
         <v>0.3290159790462937</v>
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.2825937569352188</v>
+        <v>1.030017135844681</v>
       </c>
       <c r="C207" t="n">
         <v>0.0011051128805914</v>
@@ -9498,7 +9498,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.002878347126596649</v>
+        <v>0.01049119731255592</v>
       </c>
       <c r="C209" t="n">
         <v>6.602478018620148e-05</v>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1.710601539875793</v>
+        <v>6.234917988928787</v>
       </c>
       <c r="C210" t="n">
         <v>0.029923409092974</v>
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2.25069775343092</v>
+        <v>8.203497765778337</v>
       </c>
       <c r="C212" t="n">
         <v>0.0398947141424286</v>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.006986892606734895</v>
+        <v>0.0254663060829514</v>
       </c>
       <c r="C213" t="n">
         <v>0.009186574626594699</v>
@@ -9726,7 +9726,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.00251120557133669</v>
+        <v>0.009153014554027694</v>
       </c>
       <c r="C215" t="n">
         <v>0.0002842880750307</v>
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.8535891004401519</v>
+        <v>3.111220183909269</v>
       </c>
       <c r="C217" t="n">
         <v>0.001219697801722</v>
@@ -9840,7 +9840,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1.424356521899251</v>
+        <v>5.19159248604588</v>
       </c>
       <c r="C218" t="n">
         <v>0.0152707471672519</v>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.7939235327916645</v>
+        <v>2.8937470246847</v>
       </c>
       <c r="C219" t="n">
         <v>0.0315420784342396</v>
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.1307341224030873</v>
+        <v>0.4765087090924826</v>
       </c>
       <c r="C220" t="n">
         <v>0.009537904847010399</v>

--- a/data/processed/final_df.xlsx
+++ b/data/processed/final_df.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.121718751691772</v>
+        <v>0.8931469212365873</v>
       </c>
       <c r="C3" t="n">
         <v>0.003867652267217636</v>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.98753345888251</v>
+        <v>2.842605133787814</v>
       </c>
       <c r="C4" t="n">
         <v>0.05400969088077545</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06326999846013706</v>
+        <v>0.05531354338288403</v>
       </c>
       <c r="C7" t="n">
         <v>0.0009591272100806236</v>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.86445040503187</v>
+        <v>7.363350320039585</v>
       </c>
       <c r="C9" t="n">
         <v>7.707181794103235e-05</v>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.570091543645129</v>
+        <v>3.44734952285406</v>
       </c>
       <c r="C10" t="n">
         <v>0.05324195325374603</v>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06146518800339455</v>
+        <v>-0.0616927278166552</v>
       </c>
       <c r="C11" t="n">
         <v>0.0001348128862446174</v>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.472136605279979</v>
+        <v>3.281860593665487</v>
       </c>
       <c r="C15" t="n">
         <v>0.03134971484541893</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.8805003605623852</v>
+        <v>-0.8572659068020151</v>
       </c>
       <c r="C16" t="n">
         <v>0.002643495798110962</v>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1458828193890599</v>
+        <v>0.1167050307831013</v>
       </c>
       <c r="C17" t="n">
         <v>0.0006638767081312835</v>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6693437046884801</v>
+        <v>0.6588391191153594</v>
       </c>
       <c r="C19" t="n">
         <v>0.001529586734250188</v>
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3846903722492059</v>
+        <v>-0.4010403583703248</v>
       </c>
       <c r="C20" t="n">
         <v>0.000290561409201473</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.305703601639543</v>
+        <v>1.234323329815197</v>
       </c>
       <c r="C21" t="n">
         <v>0.001430554082617164</v>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.228650428202708</v>
+        <v>4.118017101787951</v>
       </c>
       <c r="C23" t="n">
         <v>0.003637766232714057</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.972700567973897</v>
+        <v>9.303332755141746</v>
       </c>
       <c r="C24" t="n">
         <v>0.006933829747140408</v>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1196588290366816</v>
+        <v>-0.1158550779946898</v>
       </c>
       <c r="C25" t="n">
         <v>0.003747842740267515</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07873630261582047</v>
+        <v>0.0749275241607268</v>
       </c>
       <c r="C27" t="n">
         <v>0.0001848251849878579</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.06584156721221932</v>
+        <v>-0.06639385277445649</v>
       </c>
       <c r="C28" t="n">
         <v>0.001787108718417585</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.7541219517500751</v>
+        <v>-0.7364312250924342</v>
       </c>
       <c r="C30" t="n">
         <v>0.006612721830606461</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04602647299875931</v>
+        <v>0.04497117361091494</v>
       </c>
       <c r="C31" t="n">
         <v>0.001113424077630043</v>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.245816508323714</v>
+        <v>1.088461816892939</v>
       </c>
       <c r="C33" t="n">
         <v>0.02963969297707081</v>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.86307801616415</v>
+        <v>21.33778105807273</v>
       </c>
       <c r="C34" t="n">
         <v>0.2816677093505859</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2402133724277051</v>
+        <v>0.2308291295084938</v>
       </c>
       <c r="C36" t="n">
         <v>0.0007591546163894236</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1373427690695223</v>
+        <v>0.1209476805903206</v>
       </c>
       <c r="C37" t="n">
         <v>0.001642042538151145</v>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4882664622304899</v>
+        <v>0.4678718888939608</v>
       </c>
       <c r="C38" t="n">
         <v>0.005961492192000151</v>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3644970077690465</v>
+        <v>0.3519580860573004</v>
       </c>
       <c r="C39" t="n">
         <v>0.02949543669819832</v>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-7.979355684829847</v>
+        <v>-7.829640724442383</v>
       </c>
       <c r="C40" t="n">
         <v>0.2132208794355392</v>
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.073606955704673</v>
+        <v>-1.050648891091317</v>
       </c>
       <c r="C41" t="n">
         <v>0.0009944986086338758</v>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.5277867862190498</v>
+        <v>-0.5154150450455871</v>
       </c>
       <c r="C42" t="n">
         <v>0.01059573423117399</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.65471198748471</v>
+        <v>54.07124489355239</v>
       </c>
       <c r="C43" t="n">
         <v>0.2454111576080322</v>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.821700230098513</v>
+        <v>2.691316630808618</v>
       </c>
       <c r="C45" t="n">
         <v>0.0239100269973278</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.198027286254169</v>
+        <v>8.039145889023391</v>
       </c>
       <c r="C46" t="n">
         <v>0.1872355192899704</v>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.04837174896537</v>
+        <v>1.019946656845045</v>
       </c>
       <c r="C47" t="n">
         <v>0.02371708303689957</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6.162393324171298</v>
+        <v>5.848718456826736</v>
       </c>
       <c r="C49" t="n">
         <v>0.05712170898914337</v>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0588455923234614</v>
+        <v>0.05566357763502276</v>
       </c>
       <c r="C50" t="n">
         <v>6.560156862178701e-07</v>
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02595797418000757</v>
+        <v>0.0248751492631675</v>
       </c>
       <c r="C51" t="n">
         <v>1.1998119589407e-05</v>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.6993958230890475</v>
+        <v>0.6486635764218317</v>
       </c>
       <c r="C52" t="n">
         <v>0.004470799118280411</v>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6215847033770893</v>
+        <v>0.5756834653689237</v>
       </c>
       <c r="C53" t="n">
         <v>0.003972263541072607</v>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1203357685486344</v>
+        <v>0.1083467516936288</v>
       </c>
       <c r="C57" t="n">
         <v>5.819055513711646e-05</v>
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1.156786456343552</v>
+        <v>-1.130452303525845</v>
       </c>
       <c r="C58" t="n">
         <v>0.001035104505717754</v>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-4.647709274373319</v>
+        <v>-4.656339862838609</v>
       </c>
       <c r="C59" t="n">
         <v>0.001847808714956045</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1581682398165007</v>
+        <v>0.1519918397350536</v>
       </c>
       <c r="C60" t="n">
         <v>1.906622310343664e-05</v>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.5571912069393139</v>
+        <v>-0.5498591076977375</v>
       </c>
       <c r="C62" t="n">
         <v>0.00104201294016093</v>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.417312866761135</v>
+        <v>1.382555707243639</v>
       </c>
       <c r="C63" t="n">
         <v>0.002137313829734921</v>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.785656615735248</v>
+        <v>2.630853157252324</v>
       </c>
       <c r="C64" t="n">
         <v>-0.002392098773270845</v>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.470953837028071</v>
+        <v>1.356021789686422</v>
       </c>
       <c r="C65" t="n">
         <v>0.01638610474765301</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>14.85994019773907</v>
+        <v>14.04114025607576</v>
       </c>
       <c r="C66" t="n">
         <v>0.0005737603059969842</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.258896531133695</v>
+        <v>0.2514602601672494</v>
       </c>
       <c r="C67" t="n">
         <v>0.001751743140630424</v>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3.016572739577139</v>
+        <v>2.651542136360098</v>
       </c>
       <c r="C69" t="n">
         <v>0.007670175284147263</v>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.2067467632313654</v>
+        <v>-0.2038280523377194</v>
       </c>
       <c r="C70" t="n">
         <v>0.001795537187717855</v>
@@ -2214,7 +2214,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7.695141799995586</v>
+        <v>7.058222485836649</v>
       </c>
       <c r="C71" t="n">
         <v>0.05093520879745483</v>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.73992801339625</v>
+        <v>-1.718691390371083</v>
       </c>
       <c r="C72" t="n">
         <v>0.009680901654064655</v>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.05129824401116386</v>
+        <v>0.04771929923419551</v>
       </c>
       <c r="C73" t="n">
         <v>0.0004968751454725862</v>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.3967738975439538</v>
+        <v>-0.5403967054153639</v>
       </c>
       <c r="C75" t="n">
         <v>0.008600108325481415</v>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.3900098675485463</v>
+        <v>0.3757753400804724</v>
       </c>
       <c r="C78" t="n">
         <v>0.01864403858780861</v>
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-3.28887284095009</v>
+        <v>-3.29871568010639</v>
       </c>
       <c r="C79" t="n">
         <v>0.004495313856750727</v>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0001940449503456468</v>
+        <v>-0.006056005909597471</v>
       </c>
       <c r="C80" t="n">
         <v>0.001753317308612168</v>
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4.330219708174344</v>
+        <v>4.127925959212479</v>
       </c>
       <c r="C81" t="n">
         <v>0.007330964785069227</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.083797583291368</v>
+        <v>1.99545507901143</v>
       </c>
       <c r="C82" t="n">
         <v>0.007646821439266205</v>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2515049261097675</v>
+        <v>0.2476834354055343</v>
       </c>
       <c r="C83" t="n">
         <v>0.0001803376944735646</v>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2100298130505392</v>
+        <v>0.2040143238698545</v>
       </c>
       <c r="C84" t="n">
         <v>0.0008369690622203052</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3374744936424579</v>
+        <v>0.3207200407018551</v>
       </c>
       <c r="C85" t="n">
         <v>0.001789311529137194</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8363806360066621</v>
+        <v>0.7151305717717316</v>
       </c>
       <c r="C86" t="n">
         <v>0.004496734123677015</v>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.210922946951628</v>
+        <v>2.159879304307819</v>
       </c>
       <c r="C89" t="n">
         <v>0.008359708823263645</v>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05997184577626594</v>
+        <v>0.05753442675515408</v>
       </c>
       <c r="C90" t="n">
         <v>0.01458839606493711</v>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.078698535403251</v>
+        <v>1.063125941179711</v>
       </c>
       <c r="C92" t="n">
         <v>0.006452710833400488</v>
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01875590127906232</v>
+        <v>0.0161582401584589</v>
       </c>
       <c r="C93" t="n">
         <v>0.001755216158926487</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.7011677185470849</v>
+        <v>0.6704878666894611</v>
       </c>
       <c r="C94" t="n">
         <v>0.0009813663782551885</v>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.1222208879929185</v>
+        <v>-0.140160395371527</v>
       </c>
       <c r="C95" t="n">
         <v>0.001097876229323447</v>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>30.02326374728108</v>
+        <v>28.48048819212377</v>
       </c>
       <c r="C96" t="n">
         <v>0.1524171382188797</v>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>195.6410651899447</v>
+        <v>186.1094843540949</v>
       </c>
       <c r="C97" t="n">
         <v>0.1359401494264603</v>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.4028279911014698</v>
+        <v>-0.407441563245542</v>
       </c>
       <c r="C98" t="n">
         <v>0.001561569748446345</v>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5.344639178590513</v>
+        <v>4.802128015886639</v>
       </c>
       <c r="C99" t="n">
         <v>0.002651722403243184</v>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5.892298114433764</v>
+        <v>5.651823399504845</v>
       </c>
       <c r="C100" t="n">
         <v>0.001401650602929294</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.163540977370956</v>
+        <v>-0.1613255141458444</v>
       </c>
       <c r="C101" t="n">
         <v>0.00113764766138047</v>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.264248647601742</v>
+        <v>3.0863466668367</v>
       </c>
       <c r="C102" t="n">
         <v>0.000218580084037967</v>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2.02947683593053</v>
+        <v>1.885902032357542</v>
       </c>
       <c r="C103" t="n">
         <v>0.003130009863525629</v>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1351594862174737</v>
+        <v>0.1273422401002041</v>
       </c>
       <c r="C104" t="n">
         <v>0.0003405302413739264</v>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.124021950991628</v>
+        <v>1.056075827864658</v>
       </c>
       <c r="C105" t="n">
         <v>0.0001177608719444834</v>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5.134314753210407</v>
+        <v>4.508821142555242</v>
       </c>
       <c r="C106" t="n">
         <v>0.02036185562610626</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-1.848807025293865</v>
+        <v>-1.82387648413448</v>
       </c>
       <c r="C107" t="n">
         <v>0.02246977761387825</v>
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3.631676727306447</v>
+        <v>3.318003324892036</v>
       </c>
       <c r="C108" t="n">
         <v>0.03578363358974457</v>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.1881153839845936</v>
+        <v>-0.1871198713782328</v>
       </c>
       <c r="C109" t="n">
         <v>0.003273488488048315</v>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.602695934151083</v>
+        <v>1.556427424389464</v>
       </c>
       <c r="C110" t="n">
         <v>0.01285401172935963</v>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.9753260463581347</v>
+        <v>-1.09323958679715</v>
       </c>
       <c r="C113" t="n">
         <v>0.005725137423723936</v>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3.234058665227441</v>
+        <v>3.102973948666395</v>
       </c>
       <c r="C114" t="n">
         <v>2.722891167650232e-06</v>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.7311813353984797</v>
+        <v>0.6891909825339347</v>
       </c>
       <c r="C115" t="n">
         <v>0.01579750329256058</v>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1818316378247659</v>
+        <v>0.1634573624531603</v>
       </c>
       <c r="C116" t="n">
         <v>0.0001512412272859365</v>
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.6918866208441323</v>
+        <v>0.6606013765793991</v>
       </c>
       <c r="C117" t="n">
         <v>0.00690588029101491</v>
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1.506531180662133</v>
+        <v>1.441445035434004</v>
       </c>
       <c r="C118" t="n">
         <v>0.0001373295526718721</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2.975655529122987</v>
+        <v>2.848781140684896</v>
       </c>
       <c r="C121" t="n">
         <v>0.005356875713914633</v>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.01807728114356851</v>
+        <v>0.01376996035338997</v>
       </c>
       <c r="C122" t="n">
         <v>0.0006014779792167246</v>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.2291667709581745</v>
+        <v>-0.2257204482463167</v>
       </c>
       <c r="C123" t="n">
         <v>0.00256548379547894</v>
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.06845031650295709</v>
+        <v>-0.06801532939686609</v>
       </c>
       <c r="C124" t="n">
         <v>9.848001354839653e-06</v>
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.1675120982852268</v>
+        <v>-0.1657812213656211</v>
       </c>
       <c r="C125" t="n">
         <v>0.002546700416132808</v>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.479011919330236</v>
+        <v>2.295869292559299</v>
       </c>
       <c r="C127" t="n">
         <v>-0.002854174468666315</v>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.02994003057372516</v>
+        <v>-0.03177965542577638</v>
       </c>
       <c r="C129" t="n">
         <v>0.0003638059424702078</v>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1.639000529643396</v>
+        <v>1.543144101421279</v>
       </c>
       <c r="C130" t="n">
         <v>0.01840434223413467</v>
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>15.66163509707352</v>
+        <v>14.65748601931956</v>
       </c>
       <c r="C132" t="n">
         <v>0.062826007604599</v>
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.04071493268837872</v>
+        <v>-0.04332876959915425</v>
       </c>
       <c r="C134" t="n">
         <v>0.001116458442993462</v>
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3.056311939106265</v>
+        <v>2.982126844764827</v>
       </c>
       <c r="C135" t="n">
         <v>0.005499560851603746</v>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1.650736896013351</v>
+        <v>1.551314001837371</v>
       </c>
       <c r="C137" t="n">
         <v>0.04291331022977829</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.02050498678925868</v>
+        <v>-0.01991992604979346</v>
       </c>
       <c r="C138" t="n">
         <v>0.0006181070930324495</v>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.9282779404504274</v>
+        <v>-0.8880174052899868</v>
       </c>
       <c r="C139" t="n">
         <v>0.01485640462487936</v>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.107687757490416</v>
+        <v>2.981878893202782</v>
       </c>
       <c r="C140" t="n">
         <v>0.02399389818310738</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.7031051089895972</v>
+        <v>0.6881391169075223</v>
       </c>
       <c r="C141" t="n">
         <v>0.000966699852142483</v>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1974007538429876</v>
+        <v>0.1890025952169686</v>
       </c>
       <c r="C143" t="n">
         <v>9.451465302845463e-06</v>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2.762372262563558</v>
+        <v>2.689525458665899</v>
       </c>
       <c r="C144" t="n">
         <v>0.003732083365321159</v>
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>8.498245678211187</v>
+        <v>8.140367988328745</v>
       </c>
       <c r="C145" t="n">
         <v>0.02543543837964535</v>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.3588111412046501</v>
+        <v>0.3411309496219239</v>
       </c>
       <c r="C146" t="n">
         <v>0.003094382584095001</v>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.03938827377174296</v>
+        <v>0.03776650642088206</v>
       </c>
       <c r="C147" t="n">
         <v>0.0003313511260785162</v>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5.000787107117505</v>
+        <v>4.770546255613048</v>
       </c>
       <c r="C148" t="n">
         <v>0.003363757859915495</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>52.9000154208565</v>
+        <v>50.0671695627823</v>
       </c>
       <c r="C149" t="n">
         <v>0.02298467792570591</v>
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.6633795181630294</v>
+        <v>0.652718300829117</v>
       </c>
       <c r="C150" t="n">
         <v>0.009230068884789944</v>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1.113535234563823</v>
+        <v>-1.095475247569395</v>
       </c>
       <c r="C152" t="n">
         <v>0.0005049557657912374</v>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-1.537062890116532</v>
+        <v>-1.535539984377199</v>
       </c>
       <c r="C153" t="n">
         <v>0.008423434570431709</v>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2.161836814180573</v>
+        <v>1.981699426355767</v>
       </c>
       <c r="C154" t="n">
         <v>0.006716143805533648</v>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.03864248412786075</v>
+        <v>0.01770132525962957</v>
       </c>
       <c r="C156" t="n">
         <v>0.01064279861748219</v>
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1.680578265756894</v>
+        <v>1.601163901150787</v>
       </c>
       <c r="C157" t="n">
         <v>-6.644683890044689e-05</v>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>25.83740733222815</v>
+        <v>24.55977817230573</v>
       </c>
       <c r="C158" t="n">
         <v>0.007669806014746428</v>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1.070135192186278</v>
+        <v>0.9903654197234983</v>
       </c>
       <c r="C159" t="n">
         <v>0.006322493311017752</v>
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2.232220113252503</v>
+        <v>1.952792145294524</v>
       </c>
       <c r="C160" t="n">
         <v>0.06491125375032425</v>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>11.694091663594</v>
+        <v>11.02677190442262</v>
       </c>
       <c r="C161" t="n">
         <v>0.01883810572326183</v>
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.7477611871442577</v>
+        <v>0.7076378528463909</v>
       </c>
       <c r="C163" t="n">
         <v>0.03883516788482666</v>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-2.052131090170803</v>
+        <v>-2.039993139893524</v>
       </c>
       <c r="C164" t="n">
         <v>0.00519765866920352</v>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.5562611403728351</v>
+        <v>0.500340301852981</v>
       </c>
       <c r="C167" t="n">
         <v>0.001685538794845343</v>
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1.097166077027075</v>
+        <v>1.091949578453586</v>
       </c>
       <c r="C168" t="n">
         <v>0.01133025344461203</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.099301695964559</v>
+        <v>2.937631601391928</v>
       </c>
       <c r="C171" t="n">
         <v>2.058149038930424e-05</v>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.4306540227845587</v>
+        <v>-0.443534882168684</v>
       </c>
       <c r="C172" t="n">
         <v>0.004548078402876854</v>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-22.25805080744367</v>
+        <v>-21.86396056040442</v>
       </c>
       <c r="C173" t="n">
         <v>0.3987874686717987</v>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1.148634804040554</v>
+        <v>1.124653053215584</v>
       </c>
       <c r="C174" t="n">
         <v>0.00155198504216969</v>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>15.88303430644623</v>
+        <v>15.42804193155908</v>
       </c>
       <c r="C175" t="n">
         <v>0.0008478253148496151</v>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>11.11553453568315</v>
+        <v>10.76214436207021</v>
       </c>
       <c r="C176" t="n">
         <v>0.01665930077433586</v>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2.047183340527445</v>
+        <v>2.025391516057831</v>
       </c>
       <c r="C177" t="n">
         <v>0.001734192715957761</v>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.06946565551417051</v>
+        <v>0.06711844551407753</v>
       </c>
       <c r="C182" t="n">
         <v>0.001038349349983037</v>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.6850810422337368</v>
+        <v>0.6571203473065322</v>
       </c>
       <c r="C183" t="n">
         <v>0.004719179589301348</v>
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.4553252704110878</v>
+        <v>0.4434839512119437</v>
       </c>
       <c r="C184" t="n">
         <v>0.001312497421167791</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.09836944313686136</v>
+        <v>0.09111243970241094</v>
       </c>
       <c r="C186" t="n">
         <v>0.007381183095276356</v>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.09836944313686136</v>
+        <v>0.09111243970241094</v>
       </c>
       <c r="C187" t="n">
         <v>0.001005477854050696</v>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.1371674050092909</v>
+        <v>-0.1399150146838811</v>
       </c>
       <c r="C189" t="n">
         <v>0.001864593708887696</v>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.02493285998743476</v>
+        <v>0.02442248503969139</v>
       </c>
       <c r="C191" t="n">
         <v>-3.12353193976378e-07</v>
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.1047936893818448</v>
+        <v>0.100882020650006</v>
       </c>
       <c r="C192" t="n">
         <v>0.01174629013985395</v>
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.3867684261818793</v>
+        <v>-0.382705874866249</v>
       </c>
       <c r="C193" t="n">
         <v>0.001525015220977366</v>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.1440837244622581</v>
+        <v>-0.1408758632525414</v>
       </c>
       <c r="C194" t="n">
         <v>0.0007813189295120537</v>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-2.276043518690986</v>
+        <v>-2.245897826817714</v>
       </c>
       <c r="C195" t="n">
         <v>0.01451447792351246</v>
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.09606101198604484</v>
+        <v>0.09179199750487846</v>
       </c>
       <c r="C196" t="n">
         <v>0.0005437069339677691</v>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2.805006020648611</v>
+        <v>2.67660139061804</v>
       </c>
       <c r="C199" t="n">
         <v>0.001198089797981083</v>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2.520325102454083</v>
+        <v>2.438431839050882</v>
       </c>
       <c r="C201" t="n">
         <v>0.006678784731775522</v>
@@ -5578,7 +5578,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.6558506032375339</v>
+        <v>0.6214857364855439</v>
       </c>
       <c r="C202" t="n">
         <v>0.001478892401792109</v>
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>13.48156548377964</v>
+        <v>12.75746623836612</v>
       </c>
       <c r="C203" t="n">
         <v>0.02901459857821465</v>
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.09261377176381975</v>
+        <v>0.07301879046043408</v>
       </c>
       <c r="C204" t="n">
         <v>0.001682562520727515</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.5325941951643087</v>
+        <v>0.5065583550464146</v>
       </c>
       <c r="C205" t="n">
         <v>0.001445521833375096</v>
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.2108716798530858</v>
+        <v>0.2002149258806802</v>
       </c>
       <c r="C208" t="n">
         <v>0.000317122379783541</v>
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1.333507925926826</v>
+        <v>1.27275318298226</v>
       </c>
       <c r="C209" t="n">
         <v>-0.0003339315881021321</v>
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2.3137803407503</v>
+        <v>1.799925441779615</v>
       </c>
       <c r="C210" t="n">
         <v>0.01720332726836205</v>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>7.102181184657598</v>
+        <v>6.805577643430621</v>
       </c>
       <c r="C213" t="n">
         <v>0.04655374214053154</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>7.451686961931681</v>
+        <v>7.230513941245556</v>
       </c>
       <c r="C214" t="n">
         <v>0.01483750343322754</v>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-1.369791224894707</v>
+        <v>-1.374665598234508</v>
       </c>
       <c r="C215" t="n">
         <v>0.007142749615013599</v>
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.2167595459732574</v>
+        <v>0.2080012763780454</v>
       </c>
       <c r="C216" t="n">
         <v>0.00947294756770134</v>
@@ -5970,7 +5970,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>29.5702028056013</v>
+        <v>27.48368700281458</v>
       </c>
       <c r="C217" t="n">
         <v>0.2973625659942627</v>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1.004076139363607</v>
+        <v>0.9183121557173836</v>
       </c>
       <c r="C218" t="n">
         <v>0.001797981443814933</v>
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.01022697635632486</v>
+        <v>0.009682198041081736</v>
       </c>
       <c r="C220" t="n">
         <v>1.800319114408921e-05</v>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>6.077891489094934</v>
+        <v>5.78206736801828</v>
       </c>
       <c r="C221" t="n">
         <v>0.02533078193664551</v>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>7.996892555759154</v>
+        <v>7.61087988167675</v>
       </c>
       <c r="C224" t="n">
         <v>0.02208899520337582</v>
@@ -6158,7 +6158,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.02482493679549578</v>
+        <v>0.02284779769878009</v>
       </c>
       <c r="C225" t="n">
         <v>0.00032520413515158</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.008922495749947286</v>
+        <v>0.008377651472914192</v>
       </c>
       <c r="C227" t="n">
         <v>4.159193122177385e-05</v>
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3.032864058526512</v>
+        <v>2.906169159261908</v>
       </c>
       <c r="C229" t="n">
         <v>0.001327251666225493</v>
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>5.060842154109665</v>
+        <v>4.783100320701178</v>
       </c>
       <c r="C230" t="n">
         <v>0.01087905187159777</v>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2.820867963966062</v>
+        <v>2.733773688332497</v>
       </c>
       <c r="C231" t="n">
         <v>0.03230655565857887</v>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.4645078303540606</v>
+        <v>0.4439685822074215</v>
       </c>
       <c r="C232" t="n">
         <v>0.00888583529740572</v>
